--- a/posts100_tagged_with_GPT4_with_ImagePostsCount_categories.xlsx
+++ b/posts100_tagged_with_GPT4_with_ImagePostsCount_categories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuval\OneDrive\Documents\master\Second year\אפיון התנהגות אנושית מנתוני אינטרנט\reddit_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFDE4F8-D265-4DB0-8C1C-702884C8301C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF6E044-366D-48B7-B6C0-04E67D95831F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="873">
   <si>
     <t>User</t>
   </si>
@@ -3229,6 +3229,15 @@
   </si>
   <si>
     <t>['🫶', '🏻']</t>
+  </si>
+  <si>
+    <t>total_posts</t>
+  </si>
+  <si>
+    <t>latest_media_post</t>
+  </si>
+  <si>
+    <t>media_posts_count</t>
   </si>
 </sst>
 </file>
@@ -3613,15 +3622,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S51"/>
+  <dimension ref="A1:V51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:V1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3679,8 +3688,17 @@
       <c r="S1" s="1" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T1" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -3732,8 +3750,17 @@
       <c r="R2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T2">
+        <v>8</v>
+      </c>
+      <c r="U2" s="2">
+        <v>42644.665925925918</v>
+      </c>
+      <c r="V2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -3785,8 +3812,17 @@
       <c r="R3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T3">
+        <v>100</v>
+      </c>
+      <c r="U3" s="2">
+        <v>43772.714606481481</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -3838,8 +3874,17 @@
       <c r="R4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T4">
+        <v>11</v>
+      </c>
+      <c r="U4" s="2">
+        <v>42779.954918981479</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -3891,8 +3936,17 @@
       <c r="R5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T5">
+        <v>20</v>
+      </c>
+      <c r="U5" s="2">
+        <v>44202.751273148147</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -3947,8 +4001,17 @@
       <c r="R6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T6">
+        <v>37</v>
+      </c>
+      <c r="U6" s="2">
+        <v>44488.185914351852</v>
+      </c>
+      <c r="V6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -4003,8 +4066,17 @@
       <c r="R7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T7">
+        <v>13</v>
+      </c>
+      <c r="U7" s="2">
+        <v>42950.976469907408</v>
+      </c>
+      <c r="V7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -4056,8 +4128,17 @@
       <c r="R8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T8">
+        <v>3</v>
+      </c>
+      <c r="U8" s="2">
+        <v>44067.677361111113</v>
+      </c>
+      <c r="V8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -4112,8 +4193,17 @@
       <c r="R9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T9">
+        <v>8</v>
+      </c>
+      <c r="U9" s="2">
+        <v>44803.327465277784</v>
+      </c>
+      <c r="V9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -4165,8 +4255,17 @@
       <c r="R10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T10">
+        <v>87</v>
+      </c>
+      <c r="U10" s="2">
+        <v>44549.964930555558</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -4221,8 +4320,17 @@
       <c r="R11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T11">
+        <v>12</v>
+      </c>
+      <c r="U11" s="2">
+        <v>43779.679942129631</v>
+      </c>
+      <c r="V11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -4277,8 +4385,17 @@
       <c r="R12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T12">
+        <v>8</v>
+      </c>
+      <c r="U12" s="2">
+        <v>44031.939895833333</v>
+      </c>
+      <c r="V12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -4333,8 +4450,17 @@
       <c r="R13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T13">
+        <v>5</v>
+      </c>
+      <c r="U13" s="2">
+        <v>45195.386319444442</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -4386,8 +4512,17 @@
       <c r="R14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T14">
+        <v>53</v>
+      </c>
+      <c r="U14" s="2">
+        <v>41492.162430555552</v>
+      </c>
+      <c r="V14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -4442,8 +4577,17 @@
       <c r="R15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T15">
+        <v>20</v>
+      </c>
+      <c r="U15" s="2">
+        <v>44459.578784722216</v>
+      </c>
+      <c r="V15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -4498,8 +4642,17 @@
       <c r="R16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T16">
+        <v>7</v>
+      </c>
+      <c r="U16" s="2">
+        <v>44591.56391203704</v>
+      </c>
+      <c r="V16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -4551,8 +4704,17 @@
       <c r="R17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T17">
+        <v>3</v>
+      </c>
+      <c r="U17" s="2">
+        <v>44839.526944444442</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -4604,8 +4766,17 @@
       <c r="R18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T18">
+        <v>6</v>
+      </c>
+      <c r="U18" s="2">
+        <v>43656.893842592603</v>
+      </c>
+      <c r="V18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -4660,8 +4831,17 @@
       <c r="R19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T19">
+        <v>2</v>
+      </c>
+      <c r="U19" s="2">
+        <v>44148.779236111113</v>
+      </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -4716,8 +4896,17 @@
       <c r="R20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T20">
+        <v>30</v>
+      </c>
+      <c r="U20" s="2">
+        <v>43576.114166666674</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -4769,8 +4958,17 @@
       <c r="R21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T21">
+        <v>41</v>
+      </c>
+      <c r="U21" s="2">
+        <v>42707.755856481483</v>
+      </c>
+      <c r="V21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -4825,8 +5023,17 @@
       <c r="R22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T22">
+        <v>26</v>
+      </c>
+      <c r="U22" s="2">
+        <v>44480.710196759261</v>
+      </c>
+      <c r="V22">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -4881,8 +5088,17 @@
       <c r="R23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T23">
+        <v>7</v>
+      </c>
+      <c r="U23" s="2">
+        <v>44209.432430555556</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -4934,8 +5150,17 @@
       <c r="R24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T24">
+        <v>3</v>
+      </c>
+      <c r="U24" s="2">
+        <v>43949.748217592591</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -4987,8 +5212,17 @@
       <c r="R25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T25">
+        <v>7</v>
+      </c>
+      <c r="U25" s="2">
+        <v>45258.708287037043</v>
+      </c>
+      <c r="V25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -5043,8 +5277,17 @@
       <c r="S26" t="s">
         <v>864</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T26">
+        <v>9</v>
+      </c>
+      <c r="U26" s="2">
+        <v>45176.48196759259</v>
+      </c>
+      <c r="V26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -5096,8 +5339,17 @@
       <c r="R27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T27">
+        <v>13</v>
+      </c>
+      <c r="U27" s="2">
+        <v>42442.860868055563</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>44</v>
       </c>
@@ -5149,8 +5401,17 @@
       <c r="R28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T28">
+        <v>4</v>
+      </c>
+      <c r="U28" s="2">
+        <v>43160.553819444453</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>45</v>
       </c>
@@ -5202,8 +5463,17 @@
       <c r="R29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T29">
+        <v>6</v>
+      </c>
+      <c r="U29" s="2">
+        <v>44123.570648148147</v>
+      </c>
+      <c r="V29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -5255,8 +5525,17 @@
       <c r="R30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T30">
+        <v>20</v>
+      </c>
+      <c r="U30" s="2">
+        <v>44092.094988425917</v>
+      </c>
+      <c r="V30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -5308,8 +5587,17 @@
       <c r="R31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T31">
+        <v>13</v>
+      </c>
+      <c r="U31" s="2">
+        <v>43365.932708333326</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -5361,8 +5649,17 @@
       <c r="R32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T32">
+        <v>9</v>
+      </c>
+      <c r="U32" s="2">
+        <v>43629.936319444438</v>
+      </c>
+      <c r="V32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>49</v>
       </c>
@@ -5417,8 +5714,17 @@
       <c r="R33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T33">
+        <v>12</v>
+      </c>
+      <c r="U33" s="2">
+        <v>43884.905069444438</v>
+      </c>
+      <c r="V33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>50</v>
       </c>
@@ -5470,8 +5776,17 @@
       <c r="R34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T34">
+        <v>16</v>
+      </c>
+      <c r="U34" s="2">
+        <v>43718.115300925929</v>
+      </c>
+      <c r="V34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>51</v>
       </c>
@@ -5526,8 +5841,17 @@
       <c r="R35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T35">
+        <v>45</v>
+      </c>
+      <c r="U35" s="2">
+        <v>42819.058229166672</v>
+      </c>
+      <c r="V35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>52</v>
       </c>
@@ -5579,8 +5903,17 @@
       <c r="R36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T36">
+        <v>11</v>
+      </c>
+      <c r="U36" s="2">
+        <v>43971.934953703712</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>53</v>
       </c>
@@ -5635,8 +5968,17 @@
       <c r="R37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T37">
+        <v>4</v>
+      </c>
+      <c r="U37" s="2">
+        <v>43485.394282407397</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>54</v>
       </c>
@@ -5688,8 +6030,17 @@
       <c r="R38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T38">
+        <v>15</v>
+      </c>
+      <c r="U38" s="2">
+        <v>45066.618958333333</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>55</v>
       </c>
@@ -5741,8 +6092,11 @@
       <c r="R39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="V39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>56</v>
       </c>
@@ -5794,8 +6148,17 @@
       <c r="R40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T40">
+        <v>7</v>
+      </c>
+      <c r="U40" s="2">
+        <v>42186.542638888888</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>57</v>
       </c>
@@ -5847,8 +6210,17 @@
       <c r="R41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T41">
+        <v>2</v>
+      </c>
+      <c r="U41" s="2">
+        <v>45165.371620370373</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>58</v>
       </c>
@@ -5903,8 +6275,17 @@
       <c r="R42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T42">
+        <v>88</v>
+      </c>
+      <c r="U42" s="2">
+        <v>43587.763321759259</v>
+      </c>
+      <c r="V42">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>59</v>
       </c>
@@ -5959,8 +6340,17 @@
       <c r="R43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T43">
+        <v>10</v>
+      </c>
+      <c r="U43" s="2">
+        <v>42941.64912037037</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>60</v>
       </c>
@@ -6015,8 +6405,17 @@
       <c r="R44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T44">
+        <v>17</v>
+      </c>
+      <c r="U44" s="2">
+        <v>43766.723761574067</v>
+      </c>
+      <c r="V44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>61</v>
       </c>
@@ -6068,8 +6467,17 @@
       <c r="R45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T45">
+        <v>40</v>
+      </c>
+      <c r="U45" s="2">
+        <v>42791.171631944453</v>
+      </c>
+      <c r="V45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>62</v>
       </c>
@@ -6121,8 +6529,17 @@
       <c r="R46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T46">
+        <v>1</v>
+      </c>
+      <c r="U46" s="2">
+        <v>44533.607372685183</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>63</v>
       </c>
@@ -6177,8 +6594,17 @@
       <c r="R47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T47">
+        <v>5</v>
+      </c>
+      <c r="U47" s="2">
+        <v>44427.399791666663</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>64</v>
       </c>
@@ -6230,8 +6656,17 @@
       <c r="R48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T48">
+        <v>10</v>
+      </c>
+      <c r="U48" s="2">
+        <v>44367.495879629627</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>65</v>
       </c>
@@ -6283,8 +6718,17 @@
       <c r="R49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T49">
+        <v>6</v>
+      </c>
+      <c r="U49" s="2">
+        <v>43368.799629629633</v>
+      </c>
+      <c r="V49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>66</v>
       </c>
@@ -6336,8 +6780,17 @@
       <c r="R50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T50">
+        <v>13</v>
+      </c>
+      <c r="U50" s="2">
+        <v>44771.565787037027</v>
+      </c>
+      <c r="V50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>67</v>
       </c>
@@ -6388,6 +6841,15 @@
       </c>
       <c r="R51">
         <v>1</v>
+      </c>
+      <c r="T51">
+        <v>72</v>
+      </c>
+      <c r="U51" s="2">
+        <v>44054.37736111111</v>
+      </c>
+      <c r="V51">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -6450,15 +6912,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R51"/>
+  <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:U1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -6513,8 +6975,17 @@
       <c r="R1" s="1" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S1" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>449</v>
       </c>
@@ -6563,8 +7034,17 @@
       <c r="Q2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S2">
+        <v>12</v>
+      </c>
+      <c r="T2" s="2">
+        <v>45421.702546296299</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>450</v>
       </c>
@@ -6613,8 +7093,17 @@
       <c r="R3" t="s">
         <v>864</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3" s="2">
+        <v>45498.610150462962</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>451</v>
       </c>
@@ -6663,8 +7152,17 @@
       <c r="Q4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4" s="2">
+        <v>45339.619155092587</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>452</v>
       </c>
@@ -6716,8 +7214,17 @@
       <c r="Q5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S5">
+        <v>13</v>
+      </c>
+      <c r="T5" s="2">
+        <v>43025.631724537037</v>
+      </c>
+      <c r="U5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>453</v>
       </c>
@@ -6766,8 +7273,17 @@
       <c r="Q6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6" s="2">
+        <v>45545.880057870367</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>454</v>
       </c>
@@ -6819,8 +7335,17 @@
       <c r="R7" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7" s="2">
+        <v>45553.185694444437</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>455</v>
       </c>
@@ -6866,8 +7391,11 @@
       <c r="Q8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>456</v>
       </c>
@@ -6916,8 +7444,17 @@
       <c r="Q9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S9">
+        <v>9</v>
+      </c>
+      <c r="T9" s="2">
+        <v>43385.153067129628</v>
+      </c>
+      <c r="U9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>457</v>
       </c>
@@ -6966,8 +7503,17 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S10">
+        <v>2</v>
+      </c>
+      <c r="T10" s="2">
+        <v>45588.08017361111</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>458</v>
       </c>
@@ -7013,8 +7559,17 @@
       <c r="Q11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S11">
+        <v>2</v>
+      </c>
+      <c r="T11" s="2">
+        <v>42985.055972222217</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>459</v>
       </c>
@@ -7066,8 +7621,17 @@
       <c r="R12" t="s">
         <v>867</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S12">
+        <v>2</v>
+      </c>
+      <c r="T12" s="2">
+        <v>45548.198969907397</v>
+      </c>
+      <c r="U12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>460</v>
       </c>
@@ -7113,8 +7677,17 @@
       <c r="Q13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S13">
+        <v>3</v>
+      </c>
+      <c r="T13" s="2">
+        <v>45606.178055555552</v>
+      </c>
+      <c r="U13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>461</v>
       </c>
@@ -7163,8 +7736,17 @@
       <c r="Q14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14" s="2">
+        <v>45326.745381944442</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>462</v>
       </c>
@@ -7213,8 +7795,17 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S15">
+        <v>5</v>
+      </c>
+      <c r="T15" s="2">
+        <v>45269.474849537037</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>463</v>
       </c>
@@ -7263,8 +7854,17 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16" s="2">
+        <v>45603.868368055562</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>464</v>
       </c>
@@ -7313,8 +7913,17 @@
       <c r="Q17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17" s="2">
+        <v>45577.072777777779</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>465</v>
       </c>
@@ -7363,8 +7972,17 @@
       <c r="Q18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S18">
+        <v>5</v>
+      </c>
+      <c r="T18" s="2">
+        <v>45618.410150462973</v>
+      </c>
+      <c r="U18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>466</v>
       </c>
@@ -7413,8 +8031,17 @@
       <c r="Q19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19" s="2">
+        <v>45505.761018518519</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>467</v>
       </c>
@@ -7463,8 +8090,17 @@
       <c r="Q20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20" s="2">
+        <v>45319.300543981481</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>468</v>
       </c>
@@ -7510,8 +8146,11 @@
       <c r="Q21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="U21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>469</v>
       </c>
@@ -7560,8 +8199,17 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22" s="2">
+        <v>45383.701053240737</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>470</v>
       </c>
@@ -7610,8 +8258,17 @@
       <c r="Q23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S23">
+        <v>3</v>
+      </c>
+      <c r="T23" s="2">
+        <v>45510.706331018519</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>471</v>
       </c>
@@ -7660,8 +8317,17 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24" s="2">
+        <v>45459.277083333327</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>472</v>
       </c>
@@ -7710,8 +8376,17 @@
       <c r="Q25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S25">
+        <v>8</v>
+      </c>
+      <c r="T25" s="2">
+        <v>44511.508564814823</v>
+      </c>
+      <c r="U25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>473</v>
       </c>
@@ -7760,8 +8435,17 @@
       <c r="Q26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S26">
+        <v>8</v>
+      </c>
+      <c r="T26" s="2">
+        <v>45605.133483796293</v>
+      </c>
+      <c r="U26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>474</v>
       </c>
@@ -7810,8 +8494,17 @@
       <c r="Q27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S27">
+        <v>45</v>
+      </c>
+      <c r="T27" s="2">
+        <v>44662.671516203707</v>
+      </c>
+      <c r="U27">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>475</v>
       </c>
@@ -7860,8 +8553,17 @@
       <c r="Q28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S28">
+        <v>1</v>
+      </c>
+      <c r="T28" s="2">
+        <v>45340.63890046296</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>476</v>
       </c>
@@ -7910,8 +8612,17 @@
       <c r="Q29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S29">
+        <v>3</v>
+      </c>
+      <c r="T29" s="2">
+        <v>45399.864884259259</v>
+      </c>
+      <c r="U29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>477</v>
       </c>
@@ -7960,8 +8671,17 @@
       <c r="Q30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S30">
+        <v>2</v>
+      </c>
+      <c r="T30" s="2">
+        <v>41000.247812499998</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>478</v>
       </c>
@@ -8010,8 +8730,17 @@
       <c r="Q31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S31">
+        <v>2</v>
+      </c>
+      <c r="T31" s="2">
+        <v>45553.694201388891</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>479</v>
       </c>
@@ -8057,8 +8786,17 @@
       <c r="Q32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S32">
+        <v>17</v>
+      </c>
+      <c r="T32" s="2">
+        <v>44182.945439814823</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>480</v>
       </c>
@@ -8107,8 +8845,17 @@
       <c r="Q33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S33">
+        <v>5</v>
+      </c>
+      <c r="T33" s="2">
+        <v>45354.830358796287</v>
+      </c>
+      <c r="U33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>481</v>
       </c>
@@ -8154,8 +8901,17 @@
       <c r="Q34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S34">
+        <v>9</v>
+      </c>
+      <c r="T34" s="2">
+        <v>45590.374166666668</v>
+      </c>
+      <c r="U34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>482</v>
       </c>
@@ -8207,8 +8963,17 @@
       <c r="R35" t="s">
         <v>868</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S35">
+        <v>1</v>
+      </c>
+      <c r="T35" s="2">
+        <v>45567.47960648148</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>483</v>
       </c>
@@ -8257,8 +9022,17 @@
       <c r="Q36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S36">
+        <v>1</v>
+      </c>
+      <c r="T36" s="2">
+        <v>45538.294062499997</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>484</v>
       </c>
@@ -8307,8 +9081,17 @@
       <c r="Q37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S37">
+        <v>2</v>
+      </c>
+      <c r="T37" s="2">
+        <v>45617.61246527778</v>
+      </c>
+      <c r="U37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>485</v>
       </c>
@@ -8354,8 +9137,11 @@
       <c r="Q38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>486</v>
       </c>
@@ -8404,8 +9190,17 @@
       <c r="Q39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S39">
+        <v>26</v>
+      </c>
+      <c r="T39" s="2">
+        <v>44333.713263888887</v>
+      </c>
+      <c r="U39">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>487</v>
       </c>
@@ -8454,8 +9249,17 @@
       <c r="Q40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S40">
+        <v>1</v>
+      </c>
+      <c r="T40" s="2">
+        <v>45582.89875</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>488</v>
       </c>
@@ -8501,8 +9305,11 @@
       <c r="Q41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>489</v>
       </c>
@@ -8551,8 +9358,17 @@
       <c r="Q42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S42">
+        <v>1</v>
+      </c>
+      <c r="T42" s="2">
+        <v>45551.620706018519</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>490</v>
       </c>
@@ -8598,8 +9414,17 @@
       <c r="Q43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S43">
+        <v>1</v>
+      </c>
+      <c r="T43" s="2">
+        <v>45361.673194444447</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>491</v>
       </c>
@@ -8648,8 +9473,17 @@
       <c r="Q44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S44">
+        <v>13</v>
+      </c>
+      <c r="T44" s="2">
+        <v>45394.740949074083</v>
+      </c>
+      <c r="U44">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>492</v>
       </c>
@@ -8701,8 +9535,17 @@
       <c r="Q45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S45">
+        <v>5</v>
+      </c>
+      <c r="T45" s="2">
+        <v>44803.918321759258</v>
+      </c>
+      <c r="U45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>493</v>
       </c>
@@ -8751,8 +9594,17 @@
       <c r="Q46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S46">
+        <v>8</v>
+      </c>
+      <c r="T46" s="2">
+        <v>45558.924432870372</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>494</v>
       </c>
@@ -8804,8 +9656,17 @@
       <c r="R47" t="s">
         <v>869</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S47">
+        <v>3</v>
+      </c>
+      <c r="T47" s="2">
+        <v>45495.722048611111</v>
+      </c>
+      <c r="U47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>495</v>
       </c>
@@ -8854,8 +9715,17 @@
       <c r="Q48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S48">
+        <v>1</v>
+      </c>
+      <c r="T48" s="2">
+        <v>45543.025347222218</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>496</v>
       </c>
@@ -8898,8 +9768,17 @@
       <c r="Q49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S49">
+        <v>3</v>
+      </c>
+      <c r="T49" s="2">
+        <v>45513.574143518519</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>497</v>
       </c>
@@ -8948,8 +9827,17 @@
       <c r="Q50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S50">
+        <v>6</v>
+      </c>
+      <c r="T50" s="2">
+        <v>45219.429409722223</v>
+      </c>
+      <c r="U50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>498</v>
       </c>
@@ -8997,6 +9885,15 @@
       </c>
       <c r="Q51">
         <v>1</v>
+      </c>
+      <c r="S51">
+        <v>2</v>
+      </c>
+      <c r="T51" s="2">
+        <v>45244.398333333331</v>
+      </c>
+      <c r="U51">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
